--- a/dist/ctasahorro1223.xlsx
+++ b/dist/ctasahorro1223.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscgui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130CA1C-5975-47F5-B93D-4869D4A35070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C0353-E767-44BC-BC8D-46AF86293513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t>AV Villas</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Tarjeta débito de la cuenta de ahorros</t>
+  </si>
+  <si>
+    <t>Cajero de la entidad</t>
   </si>
   <si>
     <t>Cajero de otra entidad</t>
@@ -354,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -385,9 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,54 +766,65 @@
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
@@ -827,15 +838,18 @@
         <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -853,22 +867,25 @@
         <v>2</v>
       </c>
       <c r="G7" s="8">
+        <v>2850</v>
+      </c>
+      <c r="H7" s="8">
         <v>6485</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8">
         <v>14600</v>
@@ -877,14 +894,17 @@
         <v>2</v>
       </c>
       <c r="G8" s="8">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="8">
         <v>6700</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
@@ -892,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8">
         <v>7420</v>
@@ -900,15 +920,18 @@
       <c r="F9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="8">
         <v>6185</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
@@ -916,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8">
         <v>10000</v>
@@ -925,46 +948,52 @@
         <v>2</v>
       </c>
       <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
         <v>5000</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0</v>
       </c>
       <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>6400</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8">
         <v>14250</v>
@@ -973,22 +1002,25 @@
         <v>2</v>
       </c>
       <c r="G12" s="8">
+        <v>2630</v>
+      </c>
+      <c r="H12" s="8">
         <v>6780</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>5902</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8">
         <v>16200</v>
@@ -997,22 +1029,25 @@
         <v>2</v>
       </c>
       <c r="G13" s="8">
+        <v>2600</v>
+      </c>
+      <c r="H13" s="8">
         <v>6950</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8">
         <v>15200</v>
@@ -1021,64 +1056,73 @@
         <v>2</v>
       </c>
       <c r="G14" s="8">
+        <v>2550</v>
+      </c>
+      <c r="H14" s="8">
         <v>6900</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>4900</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="8">
         <v>5150</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
       <c r="B17" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8">
         <v>14000</v>
@@ -1087,20 +1131,23 @@
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="8">
+        <v>46</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="8">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8">
         <v>9250</v>
@@ -1116,23 +1163,26 @@
       <c r="F18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="8">
         <v>6350</v>
       </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8">
         <v>15100</v>
@@ -1140,15 +1190,18 @@
       <c r="F19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="8">
         <v>6400</v>
       </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
       <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
@@ -1161,42 +1214,48 @@
       <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0</v>
       </c>
       <c r="G20" s="8">
+        <v>2200</v>
+      </c>
+      <c r="H20" s="8">
         <v>6400</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
       <c r="B21" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="8">
+        <v>46</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="8">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8">
         <v>11900</v>
@@ -1212,23 +1271,26 @@
       <c r="F22" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="8">
         <v>6400</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="8">
         <v>9100</v>
@@ -1236,47 +1298,53 @@
       <c r="F23" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="8">
         <v>6950</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="8">
         <v>17190</v>
@@ -1285,21 +1353,24 @@
         <v>2</v>
       </c>
       <c r="G25" s="8">
+        <v>2490</v>
+      </c>
+      <c r="H25" s="8">
         <v>6900</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>0</v>
       </c>
       <c r="E26" s="8">
@@ -1309,22 +1380,25 @@
         <v>2</v>
       </c>
       <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <v>6955</v>
       </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8">
         <v>14250</v>
@@ -1333,86 +1407,98 @@
         <v>2</v>
       </c>
       <c r="G27" s="8">
+        <v>2400</v>
+      </c>
+      <c r="H27" s="8">
         <v>6180</v>
       </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="8">
+        <v>46</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="8">
         <v>46450</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
       <c r="B29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8">
         <v>6000</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="8">
         <v>0</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
       <c r="B31" s="12" t="s">
         <v>23</v>
       </c>
@@ -1425,18 +1511,21 @@
       <c r="E31" s="8">
         <v>0</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>0</v>
       </c>
       <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
         <v>6350</v>
       </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
       <c r="B32" s="12" t="s">
         <v>25</v>
       </c>
@@ -1444,23 +1533,26 @@
         <v>0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="8">
         <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>6150</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
       <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
@@ -1468,114 +1560,122 @@
         <v>0</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
       <c r="B34" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>0</v>
       </c>
       <c r="E34" s="8">
         <v>0</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <v>0</v>
       </c>
       <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <v>6960</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A7:A34"/>
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C4:F4"/>
